--- a/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,91 @@
           <t>log_best_grid</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_renda_baixa</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_renda_alta</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_sexo_mulher</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_sexo_homem</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade_less40</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade_more40</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade3</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_norte</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_nordeste</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_sudeste</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_sul</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_centro_oeste</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>dt_exp</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>rf_exp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,29 +572,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0740584482662671</v>
+        <v>0.08841029047095439</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3561407160458364</v>
+        <v>-0.3596670273164657</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3846386304601918</v>
+        <v>-0.375232968027443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5330349069804005</v>
+        <v>0.4270913484275061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4224260960009275</v>
+        <v>0.6085028859671858</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3930425803808136</v>
+        <v>0.2255854153401001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4343019807177917</v>
+        <v>0.379357368435031</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4063797724265776</v>
-      </c>
+        <v>0.2418913238484973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01321640260353027</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4085388932674926</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.07368234940306555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1070198579833858</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1080750250941951</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.1183102115090504</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.05244954784002569</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1212377602788528</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1976122866906855</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03447291215679107</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.001447980317488464</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3088549070861667</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2578297591592779</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3768178938105072</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8304875727968453</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -518,24 +650,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04127197448859075</v>
+        <v>0.03293350680575683</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.06039239438758728</v>
+        <v>0.05080695341655181</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.06811070882203014</v>
+        <v>0.05741558435261409</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06667570916281174</v>
+        <v>0.05898430135189713</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06162636509034551</v>
+        <v>0.0565784181400702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06663628457132872</v>
+        <v>0.05868607878854772</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05325089217110121</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0607523167178206</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.05020743844196469</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0699791456652953</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.07138789911816718</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05085833899538811</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.07304348652495868</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06768055290686406</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06365817694538807</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.02139372384501209</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.08822528861906417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.07156927949544066</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02456293908109812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06221235494367305</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.02793009420553279</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.02977351400994221</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.00659121318947396</v>
       </c>
     </row>
     <row r="4">
@@ -545,24 +728,75 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3239446983594551</v>
+        <v>-0.3110561044774335</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>-0.2887931938914289</v>
+        <v>-0.2686380543701918</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.3610256939121302</v>
+        <v>0.008186721151914902</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2168895792156875</v>
+        <v>-0.2171541409508627</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2856188134319622</v>
+        <v>-0.2809909854521802</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2199637365192384</v>
+        <v>-0.2126909321999807</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.1436532651969065</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3083926291322202</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.2065356311511107</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.2143225879136349</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.07473352417654944</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.3369711151119406</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.005980885692627423</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1546545370894981</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.2372383629933376</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.5023688090476083</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.07805709403864657</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.188528157885361</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2280981566358999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.3133645437642385</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3747883318544316</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.03515302978284745</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.02790623038655593</v>
       </c>
     </row>
     <row r="5">
@@ -572,24 +806,75 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4274995037033422</v>
+        <v>0.4266445302534104</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.4624425617307449</v>
+        <v>0.4968936432688553</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.6573499217548775</v>
+        <v>0.7134579751517327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.522766659159915</v>
+        <v>0.5451131820847904</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4375552247780745</v>
+        <v>0.4298224783827578</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5242039993623711</v>
+        <v>0.5508249818186541</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5430298338349037</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5684420723347245</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5552699702664404</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.575325557482361</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6414247215251878</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4454647891165558</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5677759508944532</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6955889255581068</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3959939513106306</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5268767354228745</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4446167454012109</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5164587907816165</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5524898540933959</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6028662332977593</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7280375398390789</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06162415095642837</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.03065755333669287</v>
       </c>
     </row>
     <row r="6">
@@ -599,24 +884,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2645089194606266</v>
+        <v>-0.2574997732991599</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>-0.1665744181425712</v>
+        <v>-0.168735271217353</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.109496397071202</v>
+        <v>-0.0225218275507745</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004934805980148974</v>
+        <v>-0.005211476239857595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02065491750250602</v>
+        <v>0.0002321959467225603</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005148375946710792</v>
+        <v>-0.004161543132249423</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.04013875482345541</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05612063358804344</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1025990396612649</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.1545440408129345</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1141301741369567</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.1266563859848372</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1333320068314487</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.09399734443814031</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04672349304371198</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2629103742405735</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1589434139821318</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.1058177705464864</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.02649539909748065</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.08776691653000711</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.07370602023262539</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.009802392071497834</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.007991275687465499</v>
       </c>
     </row>
     <row r="7">
@@ -627,23 +963,74 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.6380077317838331</v>
+        <v>0.598822376247938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6516879953356071</v>
+        <v>0.6107212392019017</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.8902330158887156</v>
+        <v>0.6923264694962541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6342829168255336</v>
+        <v>0.526983525452637</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3360732152166998</v>
+        <v>0.2540421348169169</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6024061392528383</v>
+        <v>0.5261667837525835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5813035557395559</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4781238405944345</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5945510059601166</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2458696207859135</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3664964308511479</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.562830792698728</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4433469230677745</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3671039396977405</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5718291304287463</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5768773684822843</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6347340177253896</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.4596935501441321</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5139472609757101</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7586700256968802</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1589459477821145</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,23 +1041,74 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.3785739734363132</v>
+        <v>0.3329954594975929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3676019924394046</v>
+        <v>0.3201042418881354</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.4248449015409902</v>
+        <v>0.3355042705795003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.416592306931619</v>
+        <v>0.3478651971699352</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4186265082299512</v>
+        <v>0.2969089382755387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4269591801703103</v>
+        <v>0.3558104086249295</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.345735192527769</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.365098572693223</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2866711118336114</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4616129281157406</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5833458274818881</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.2423320533480413</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7591711728603654</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5288913227330373</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3365859654893686</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2252950938409177</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.4245864783970125</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.4110978643081494</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1968231286184324</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.4261412483212504</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3128571403066884</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1050934713264846</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1196545089673275</v>
       </c>
     </row>
     <row r="9">
@@ -681,23 +1119,74 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.3672899827862722</v>
+        <v>0.4426116002868843</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3588833797221106</v>
+        <v>0.4276491689400954</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.4584323759095543</v>
+        <v>0.5088576169055579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3960179904810393</v>
+        <v>0.4629750593293703</v>
       </c>
       <c r="H9" t="n">
-        <v>0.226858404593292</v>
+        <v>0.2877013904410228</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4024299146834579</v>
+        <v>0.4782340584109332</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4730404916037785</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4809919493805861</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.428698362488374</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5975622406107011</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3552978037964453</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.4866854130595305</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7077151548395086</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2435168557685488</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6665600428567309</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.4416313076904517</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6340141150356756</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.4237352499611113</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4358603252413955</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.4662091388969016</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4430864919859008</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.02335270549943606</v>
       </c>
     </row>
     <row r="10">
@@ -708,23 +1197,74 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.7516136004269039</v>
+        <v>0.8173255593870614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7262095622816558</v>
+        <v>0.7935833906997333</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.5552937077382585</v>
+        <v>0.6311184971095474</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8117737506908331</v>
+        <v>0.8851512138557585</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6526446227321525</v>
+        <v>0.7489801259748162</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7875413946242562</v>
+        <v>0.8806426648702045</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9591376455855898</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7565673170534246</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8029357301925161</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9674060520665121</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.194363959722412</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7542574925370261</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.428391237866615</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.074171421591972</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6924359206415228</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.821053962974598</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9507878499206778</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.896213327006224</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.110200530818019</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4676589145857515</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.7037309854898374</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.05416279398180539</v>
       </c>
     </row>
     <row r="11">
@@ -735,23 +1275,74 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.3798102094143315</v>
+        <v>0.4155777361832707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4135597510995869</v>
+        <v>0.4478229501524228</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.4546096918375643</v>
+        <v>0.4416853231170753</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4423868685793422</v>
+        <v>0.4520339945307955</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3289318868567858</v>
+        <v>0.3791179485088395</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4573079001943994</v>
+        <v>0.4714574905064179</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4732883123519115</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4681543362753872</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4432813908004383</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.527185190504542</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5233318101272673</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4372092076241082</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3778646321376163</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6071000952856066</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3937484082936381</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5094003969301706</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4402974904614564</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4653135923604281</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5235779699052008</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4988571973100032</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3942542159141138</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.05125546052898222</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.08054928339848243</v>
       </c>
     </row>
     <row r="12">
@@ -762,23 +1353,74 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.800661783689953</v>
+        <v>0.8274164598951924</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7459484623446668</v>
+        <v>0.7482262423075713</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.8075730334259541</v>
+        <v>0.8012351065275636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8422053862182526</v>
+        <v>0.8015055490966779</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6292326832255855</v>
+        <v>0.5851383517099206</v>
       </c>
       <c r="I12" t="n">
-        <v>0.779000211293549</v>
+        <v>0.7990126433683727</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8656040578043848</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6535496254898132</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7201993812509127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8346019514089233</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.054911032728778</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.7066414674511545</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.033091367816639</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.047538389615108</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6863302552634823</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.753479007022942</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.582634696317514</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.7982201206087071</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.7896097368984462</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.8002877018737031</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.252023941239377</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -789,23 +1431,74 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.9869689190362195</v>
+        <v>0.9709645811247088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9787515876914287</v>
+        <v>0.9666216940124102</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.8663853206802914</v>
+        <v>0.9125738705615186</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9395372852379811</v>
+        <v>0.9135810504434609</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8295547369241911</v>
+        <v>0.8247819182367573</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9224465794657603</v>
+        <v>0.9118441812639587</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8905440093178907</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9259971349595172</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8449990637162367</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.174770514337292</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9930751123261828</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8787227902151529</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.000564509482604</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9999823640916958</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9442037340355313</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9118449333764453</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8795473135606559</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9776788106187327</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.9491070146891983</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.6604916116421576</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.032001527079374</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0850614213616574</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1266279897932048</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +1509,74 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0.1369406995516451</v>
+        <v>0.1718466589537598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1451926888667908</v>
+        <v>0.1841484508893274</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.2938400424543438</v>
+        <v>0.3862058249628295</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15210688467165</v>
+        <v>0.1999313565492728</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01387517896209382</v>
+        <v>0.07916889748960407</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1429599702562385</v>
+        <v>0.1903094031949638</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.21302000763473</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1369416966534953</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.155538722922047</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2452023594798356</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2361662000101486</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1412462940157818</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3248275508723477</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1876486187906158</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1870123005209375</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.08802066460591836</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3389894076310619</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06315743903434785</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3752252876465313</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.09587690443449781</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.06324089059490771</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.005586905496662999</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.02087529828937386</v>
       </c>
     </row>
     <row r="15">
@@ -845,19 +1589,66 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-1.1160557292987</v>
+        <v>-1.050829179728364</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.058197728942757</v>
+        <v>-1.040200962062119</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.009006548228627</v>
+        <v>-1.004322752213272</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.18237943677006</v>
+        <v>-1.149602845109496</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9968217194060317</v>
+        <v>-0.9984706524474731</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1.052021139067762</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.9294893642298976</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>-1.136666190465586</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.8946888949404204</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.15449154782546</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-1.114482816530129</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.9374556603833734</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.8432154741475543</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1.114551416138676</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.9352464100822732</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.9510298563021748</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.8632049682420729</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-1.243392049422181</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.5160921064929431</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.3892714750898331</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +1661,70 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.3863116468119924</v>
+        <v>-0.3908151934010236</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3547248506549109</v>
+        <v>-0.337151351998511</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3720469291924142</v>
+        <v>-0.3613113690209812</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3740857804406019</v>
+        <v>-0.3796714867221856</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.370935762316822</v>
+        <v>-0.3629806153200745</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.3927795944920378</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.2833588079350921</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.2327549160526793</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.6074204513995106</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.3532981080049933</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.3862563340245289</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.315700987833142</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.3628749633667071</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.5570116958537704</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.2252495425645419</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.3709084832213077</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.3750894081737554</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.3889318656480695</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.307672998866131</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.3067768362899017</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.05441562878594887</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.06655234352006274</v>
       </c>
     </row>
     <row r="17">
@@ -895,19 +1737,70 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.118837232128166</v>
+        <v>-0.03994026348645136</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02316977472289983</v>
+        <v>-0.04349538286778701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02404113552624051</v>
+        <v>0.02157111482613456</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.008879692833420657</v>
+        <v>0.0128336369611939</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02431671123022212</v>
+        <v>0.01938159981063712</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.06022193622994988</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.003297727268798967</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.00850585120351322</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.07724880429073201</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.006003816102489646</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.05560758950875244</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.03121617460888204</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.03047162405807931</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.07724891070312004</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02008959530074963</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1023885954475065</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.002988405361712019</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.006142358535025567</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.06395673432075015</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.0830607826921818</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.004805993195136018</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.006243335830654275</v>
       </c>
     </row>
     <row r="18">
@@ -920,173 +1813,466 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.08147401714881683</v>
+        <v>0.1159624805032701</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1864649958320523</v>
+        <v>-0.1645238296751658</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07392110706209443</v>
+        <v>-0.05600024055658809</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.06137186431921215</v>
+        <v>-0.03455394962497098</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07526985138159009</v>
+        <v>-0.06142905522380834</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.00342479746260841</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1440680191224907</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.06326063965410909</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.02678838740180837</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>-0.04568068250007021</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.07085536826493438</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.01427655965971534</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.06777713987208746</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1296990657686618</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.01197559944487173</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.006319193147230384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>cor_branca</t>
+          <t>class_renda</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.08280307809609172</v>
+        <v>-0.2881790248885415</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1195184858215987</v>
+        <v>-0.2339076319790845</v>
       </c>
       <c r="G19" t="n">
-        <v>0.102203065914221</v>
+        <v>-0.2159044989116853</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2944222657940227</v>
+        <v>-0.2433643249848889</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1076178163220726</v>
+        <v>-0.2178226482079839</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>-0.2933804799586436</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1509994338043972</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.08090520776461688</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.3599425184771486</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.04100724562746618</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.186057490840102</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.3721940162516757</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.2937424184787101</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.3623125631581927</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.04783038232018201</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.2624848801297247</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.41573486882464</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.1523942277619023</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.02325003385014245</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.02531099431058551</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>cor_preta</t>
+          <t>r_norte</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.2087987937623225</v>
+        <v>-0.08060485451772936</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1365495272421828</v>
+        <v>0.01508341421044419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1408972207911487</v>
+        <v>-0.07864926074281797</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2441510644712671</v>
+        <v>-0.04664333649020832</v>
       </c>
       <c r="I20" t="n">
-        <v>0.146994407059571</v>
+        <v>-0.07133994702509107</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.1276130460618353</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.0676101683926118</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.1026926659344388</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1824204452457752</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.04297441018177948</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.1526772012090504</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.02599433906575027</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.1206258431499396</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.223680107221946</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.07233791517940329</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>0.003798336613726669</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.003417064095384525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>cor_amarela</t>
+          <t>r_nordeste</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-0.09527276205592133</v>
+        <v>0.0921217511244581</v>
       </c>
       <c r="F21" t="n">
-        <v>0.202516984368705</v>
+        <v>0.09505130207862908</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05124194909719267</v>
+        <v>0.09453158360246315</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2626580699449537</v>
+        <v>0.162725798425864</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04692902847923715</v>
+        <v>0.09860595781126287</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.01460456455368297</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2599357637618283</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.004188334205599924</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1040124665767261</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1171087526688932</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03440991604363898</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1240904671315738</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.107715875993416</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.04676129231926173</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.02468320080010153</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>0.002311956082728097</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.001506210284155824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>cor_parda</t>
+          <t>r_sudeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.1352264483289186</v>
+        <v>0.1699172765767713</v>
       </c>
       <c r="F22" t="n">
-        <v>0.139631273505433</v>
+        <v>0.02028045345909574</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09030297455534733</v>
+        <v>0.0911198878432114</v>
       </c>
       <c r="H22" t="n">
-        <v>0.312740016891105</v>
+        <v>0.1464405133239115</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09700886924869703</v>
+        <v>0.0931895263726438</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0364237020270942</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1218026219699975</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01646739137558623</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0504984675164259</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.03473327890864224</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1528626977925132</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.05399304299764739</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.1018380319131177</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.112945054888285</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2111215094373347</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0008252733553956642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>cor_indigena</t>
+          <t>r_sul</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.18555559844252</v>
+        <v>0.09882274831369456</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2371905770257908</v>
+        <v>-0.05855810603329039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09959842776084385</v>
+        <v>0.006041644640203639</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1662203233685123</v>
+        <v>0.0003815201101424374</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1016877082745947</v>
+        <v>0.009663544903424833</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.05436641184662697</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.03277356942050424</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.09433784348177857</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.005244274603719849</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.05339171751945629</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01088759598463186</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1906049666577723</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.04352497960318333</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.09293703197646938</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.06446049511021867</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.001073550074042892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>activity_class</t>
+          <t>r_centro_oeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.145164401028334</v>
+      </c>
       <c r="F24" t="n">
-        <v>-0.005280759954039123</v>
+        <v>-0.06367034256277451</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04352925724808123</v>
+        <v>0.1070567569106278</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2179209505540413</v>
+        <v>0.1097171415471539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009703778000036856</v>
+        <v>0.111772241781431</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.06464389934048996</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1271842453517322</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1110691028454016</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.08435462144129985</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1220656790232404</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.07282720289428674</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.03897666531430082</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1924607797424207</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1686490147274442</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.06453338779199531</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.0003850080871679181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>renda_pc</t>
+          <t>activity_class</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1094,16 +2280,67 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>-0.09493710291915854</v>
+        <v>-0.04594539837098988</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08878493409234628</v>
+        <v>-0.01194932124140764</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.07884469234021553</v>
+        <v>-0.2503771689580481</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.09025491332407781</v>
+        <v>-0.0387610401203585</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01591386380226879</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.09923171397193659</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.05521228839112366</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.2295472150152053</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04873927902365896</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.04021950652565973</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.05272265918509387</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.04648203534646526</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.04718315574884838</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.03768658348680035</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.1275140668007314</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.04075708757652695</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.05339634034079128</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-0.03052088131689951</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05681146782512388</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.0007266996756689666</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,95 +471,100 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>log_all_medianimp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>log_all_smote</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>log_best_grid</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>log_class_renda_baixa</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>log_class_renda_alta</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>log_class_sexo_mulher</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>log_class_sexo_homem</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade_less40</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade_more40</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>log_class_idade4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>log_class_r_norte</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>log_class_r_nordeste</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>log_class_r_sudeste</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>log_class_r_sul</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>log_class_r_centro_oeste</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>dt_exp</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>rf_exp</t>
         </is>
@@ -581,67 +586,70 @@
         <v>-0.375232968027443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4270913484275061</v>
+        <v>0.5006947726293426</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6085028859671858</v>
+        <v>0.3044084328242878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2255854153401001</v>
+        <v>0.2753590574339034</v>
       </c>
       <c r="H2" t="n">
-        <v>0.379357368435031</v>
+        <v>0.2988378544508173</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2418913238484973</v>
+        <v>0.751134285597876</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01321640260353027</v>
+        <v>0.2947034233241503</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4085388932674926</v>
+        <v>-0.05391066255394521</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.07368234940306555</v>
+        <v>0.5399064096471564</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1070198579833858</v>
+        <v>-0.03511197365442555</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1080750250941951</v>
+        <v>-0.09831551552920177</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1183102115090504</v>
+        <v>0.1790761953623435</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05244954784002569</v>
+        <v>0.1297472004275759</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1212377602788528</v>
+        <v>0.1940254499330396</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1976122866906855</v>
+        <v>0.1611934469172966</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03447291215679107</v>
+        <v>0.2304993102052895</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001447980317488464</v>
+        <v>0.03217374192608941</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3088549070861667</v>
+        <v>-0.0799269745942061</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2578297591592779</v>
+        <v>0.2772131163878756</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3768178938105072</v>
+        <v>0.2320191339181472</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8304875727968453</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>0.4215060103575802</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9988825629942707</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -658,67 +666,70 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.05741558435261409</v>
+        <v>0.0490850628954886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05898430135189713</v>
+        <v>0.05828407178508301</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0565784181400702</v>
+        <v>0.0580299715855661</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05868607878854772</v>
+        <v>0.01579648652372174</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05325089217110121</v>
+        <v>0.04931437143463178</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0607523167178206</v>
+        <v>0.04680239066093192</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05020743844196469</v>
+        <v>0.04952544402755754</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0699791456652953</v>
+        <v>0.03726887241355105</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07138789911816718</v>
+        <v>0.06808760641694341</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05085833899538811</v>
+        <v>0.05790733674685282</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07304348652495868</v>
+        <v>0.04774167693523195</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06768055290686406</v>
+        <v>0.05763759473798546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06365817694538807</v>
+        <v>0.05509539452527911</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02139372384501209</v>
+        <v>0.05605867658779092</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08822528861906417</v>
+        <v>0.02410811956605487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07156927949544066</v>
+        <v>0.08076667734165567</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02456293908109812</v>
+        <v>0.06132093184632997</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06221235494367305</v>
+        <v>0.02817305106155158</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02793009420553279</v>
+        <v>0.05367449568512379</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02977351400994221</v>
+        <v>0.01092361034708702</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00659121318947396</v>
+        <v>0.01841328429592833</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01692889863667504</v>
       </c>
     </row>
     <row r="4">
@@ -736,67 +747,70 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.008186721151914902</v>
+        <v>-0.2278486575994274</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2171541409508627</v>
+        <v>-0.2180428915407883</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2809909854521802</v>
+        <v>-0.2207319312592287</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2126909321999807</v>
+        <v>-0.3137279016265359</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1436532651969065</v>
+        <v>-0.2267689254557565</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3083926291322202</v>
+        <v>-0.1499877939516548</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2065356311511107</v>
+        <v>-0.3391029548074808</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2143225879136349</v>
+        <v>-0.2232369138695824</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.07473352417654944</v>
+        <v>-0.2231840203740357</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.3369711151119406</v>
+        <v>-0.07448544305708567</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005980885692627423</v>
+        <v>-0.347476080907338</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1546545370894981</v>
+        <v>0.03752160933580291</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2372383629933376</v>
+        <v>-0.1605068517632279</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.5023688090476083</v>
+        <v>-0.223368205319255</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.07805709403864657</v>
+        <v>-0.5230346584428825</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.188528157885361</v>
+        <v>-0.03020373119492653</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.2280981566358999</v>
+        <v>-0.2064404666629449</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.3133645437642385</v>
+        <v>-0.3011789252026035</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.3747883318544316</v>
+        <v>-0.2471018347946583</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03515302978284745</v>
+        <v>-0.4340234447412215</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02790623038655593</v>
+        <v>0.02028129088677196</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.03211143947943131</v>
       </c>
     </row>
     <row r="5">
@@ -814,67 +828,70 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.7134579751517327</v>
+        <v>0.5712071073116531</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5451131820847904</v>
+        <v>0.5445650566499388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4298224783827578</v>
+        <v>0.5498471087499278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5508249818186541</v>
+        <v>0.4794362301025227</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5430298338349037</v>
+        <v>0.5647516476418596</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5684420723347245</v>
+        <v>0.5970936150080809</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5552699702664404</v>
+        <v>0.5339161449883808</v>
       </c>
       <c r="M5" t="n">
-        <v>0.575325557482361</v>
+        <v>0.5698084212238812</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6414247215251878</v>
+        <v>0.6057854133942037</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4454647891165558</v>
+        <v>0.6707898226030821</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5677759508944532</v>
+        <v>0.483509343079376</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6955889255581068</v>
+        <v>0.6627681197154834</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3959939513106306</v>
+        <v>0.674230494998024</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5268767354228745</v>
+        <v>0.4803474508131954</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4446167454012109</v>
+        <v>0.5170507668681815</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5164587907816165</v>
+        <v>0.4336840296092129</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5524898540933959</v>
+        <v>0.5992696125333534</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6028662332977593</v>
+        <v>0.5734993601627433</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7280375398390789</v>
+        <v>0.5758687177125545</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06162415095642837</v>
+        <v>0.6426468012578946</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03065755333669287</v>
+        <v>0.06409086101522647</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0329444659477009</v>
       </c>
     </row>
     <row r="6">
@@ -892,67 +909,70 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.0225218275507745</v>
+        <v>-0.02304545050135502</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005211476239857595</v>
+        <v>0.001642081675282384</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002321959467225603</v>
+        <v>0.002533559910440389</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.004161543132249423</v>
+        <v>-0.02543644708343883</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04013875482345541</v>
+        <v>-0.0235549500770212</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05612063358804344</v>
+        <v>-0.06318860716339417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1025990396612649</v>
+        <v>0.04240898375296445</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1545440408129345</v>
+        <v>0.08294942500396554</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1141301741369567</v>
+        <v>-0.1848719705169307</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1266563859848372</v>
+        <v>0.1144051819643045</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1333320068314487</v>
+        <v>-0.1396901658643921</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09399734443814031</v>
+        <v>0.1359378690658738</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04672349304371198</v>
+        <v>0.09728091083893604</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.2629103742405735</v>
+        <v>-0.08543375983079379</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1589434139821318</v>
+        <v>-0.2382064156482003</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.1058177705464864</v>
+        <v>0.2336297989764964</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02649539909748065</v>
+        <v>-0.1369755500668124</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.08776691653000711</v>
+        <v>0.006480453765967407</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07370602023262539</v>
+        <v>-0.1329736427060252</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009802392071497834</v>
+        <v>-0.02316769132483312</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007991275687465499</v>
+        <v>0.007678296045119935</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.009924033982487474</v>
       </c>
     </row>
     <row r="7">
@@ -970,66 +990,69 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.6923264694962541</v>
+        <v>0.5151619433433663</v>
       </c>
       <c r="G7" t="n">
-        <v>0.526983525452637</v>
+        <v>0.5245807444715085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2540421348169169</v>
+        <v>0.5214914854261801</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5261667837525835</v>
+        <v>0.2866946860132951</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5813035557395559</v>
+        <v>0.484660437082276</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4781238405944345</v>
+        <v>0.5812548867236121</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5945510059601166</v>
+        <v>0.4814043370301786</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2458696207859135</v>
+        <v>0.5767624198497034</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3664964308511479</v>
+        <v>0.3076164753362361</v>
       </c>
       <c r="O7" t="n">
-        <v>0.562830792698728</v>
+        <v>0.4282442293423472</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4433469230677745</v>
+        <v>0.5346669975609438</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3671039396977405</v>
+        <v>0.4615584920499783</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5718291304287463</v>
+        <v>0.4260848449603999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5768773684822843</v>
+        <v>0.5489562107290068</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6347340177253896</v>
+        <v>0.5558008857954749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4596935501441321</v>
+        <v>0.619877800281181</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5139472609757101</v>
+        <v>0.5236196378688428</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7586700256968802</v>
+        <v>0.5007976692422954</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1589459477821145</v>
+        <v>0.8091695127696096</v>
       </c>
       <c r="Y7" t="n">
+        <v>-0.002101641541308354</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,67 +1071,70 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.3355042705795003</v>
+        <v>0.3452414744415528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3478651971699352</v>
+        <v>0.3498286850832531</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2969089382755387</v>
+        <v>0.3581022470802309</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3558104086249295</v>
+        <v>0.3493447428379544</v>
       </c>
       <c r="J8" t="n">
-        <v>0.345735192527769</v>
+        <v>0.3470026062927024</v>
       </c>
       <c r="K8" t="n">
-        <v>0.365098572693223</v>
+        <v>0.3207970614304912</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2866711118336114</v>
+        <v>0.3853733511011433</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4616129281157406</v>
+        <v>0.2743717154254384</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5833458274818881</v>
+        <v>0.4683643313262998</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2423320533480413</v>
+        <v>0.5778005620791812</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7591711728603654</v>
+        <v>0.2386901960150539</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5288913227330373</v>
+        <v>0.7252020900036811</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3365859654893686</v>
+        <v>0.5364384547481963</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2252950938409177</v>
+        <v>0.3223443852266387</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4245864783970125</v>
+        <v>0.2241170480656189</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4110978643081494</v>
+        <v>0.3678319987319613</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1968231286184324</v>
+        <v>0.3993895490849529</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4261412483212504</v>
+        <v>0.2128492869364522</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3128571403066884</v>
+        <v>0.4418705559430138</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1050934713264846</v>
+        <v>0.3244683715588457</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1196545089673275</v>
+        <v>0.1174901344291465</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.09796813992533358</v>
       </c>
     </row>
     <row r="9">
@@ -1126,67 +1152,70 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.5088576169055579</v>
+        <v>0.4966348972541741</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4629750593293703</v>
+        <v>0.4643075064338085</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2877013904410228</v>
+        <v>0.479607576318774</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4782340584109332</v>
+        <v>0.3126726288749622</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4730404916037785</v>
+        <v>0.4871601733709644</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4809919493805861</v>
+        <v>0.4973530188693997</v>
       </c>
       <c r="L9" t="n">
-        <v>0.428698362488374</v>
+        <v>0.5071465837371005</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5975622406107011</v>
+        <v>0.4566783681592305</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3552978037964453</v>
+        <v>0.5976976998129813</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4866854130595305</v>
+        <v>0.2605219231116263</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7077151548395086</v>
+        <v>0.5231573283508313</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2435168557685488</v>
+        <v>0.5209230702021125</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6665600428567309</v>
+        <v>0.2126211582700721</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4416313076904517</v>
+        <v>0.705617130161872</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6340141150356756</v>
+        <v>0.4724886242588635</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4237352499611113</v>
+        <v>0.6555657015944814</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4358603252413955</v>
+        <v>0.4311678323158463</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4662091388969016</v>
+        <v>0.4202206989429136</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4430864919859008</v>
+        <v>0.5089863386404103</v>
       </c>
       <c r="Y9" t="n">
+        <v>0.5145236671574892</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0.02335270549943606</v>
+      <c r="AA9" t="n">
+        <v>0.01818574151062811</v>
       </c>
     </row>
     <row r="10">
@@ -1204,67 +1233,70 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.6311184971095474</v>
+        <v>0.8754339152804853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8851512138557585</v>
+        <v>0.8897424902604524</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7489801259748162</v>
+        <v>0.8823887518124569</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8806426648702045</v>
+        <v>0.7499008680919355</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9591376455855898</v>
+        <v>0.8528577024364928</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7565673170534246</v>
+        <v>0.9444138247897593</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8029357301925161</v>
+        <v>0.7911890139716061</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9674060520665121</v>
+        <v>0.8063226054727188</v>
       </c>
       <c r="N10" t="n">
-        <v>1.194363959722412</v>
+        <v>0.9637671543572744</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7542574925370261</v>
+        <v>1.171546193459507</v>
       </c>
       <c r="P10" t="n">
-        <v>1.428391237866615</v>
+        <v>0.7741226890538123</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.074171421591972</v>
+        <v>1.576615227643527</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6924359206415228</v>
+        <v>0.9890133640313843</v>
       </c>
       <c r="S10" t="n">
-        <v>0.821053962974598</v>
+        <v>0.6843606411610904</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9507878499206778</v>
+        <v>0.8454736853385005</v>
       </c>
       <c r="U10" t="n">
-        <v>0.896213327006224</v>
+        <v>0.9866319089553454</v>
       </c>
       <c r="V10" t="n">
-        <v>1.110200530818019</v>
+        <v>0.9510331349549193</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4676589145857515</v>
+        <v>1.01085278572096</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7037309854898374</v>
+        <v>0.3961424612850083</v>
       </c>
       <c r="Y10" t="n">
+        <v>0.7625729853072846</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0.05416279398180539</v>
+      <c r="AA10" t="n">
+        <v>0.02654174688270966</v>
       </c>
     </row>
     <row r="11">
@@ -1282,67 +1314,70 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.4416853231170753</v>
+        <v>0.4649784994706457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4520339945307955</v>
+        <v>0.454752514413836</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3791179485088395</v>
+        <v>0.4746624050458638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4714574905064179</v>
+        <v>0.402993017107752</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4732883123519115</v>
+        <v>0.4630068600478784</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4681543362753872</v>
+        <v>0.4631256506298284</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4432813908004383</v>
+        <v>0.4683117316700502</v>
       </c>
       <c r="M11" t="n">
-        <v>0.527185190504542</v>
+        <v>0.428197398573967</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5233318101272673</v>
+        <v>0.5336804782325918</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4372092076241082</v>
+        <v>0.5241002095827659</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3778646321376163</v>
+        <v>0.4238688713513677</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6071000952856066</v>
+        <v>0.4770821931709892</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3937484082936381</v>
+        <v>0.5621027574775213</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5094003969301706</v>
+        <v>0.3908065893142255</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4402974904614564</v>
+        <v>0.4888443921675828</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4653135923604281</v>
+        <v>0.3774822694926668</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5235779699052008</v>
+        <v>0.4748626639607098</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4988571973100032</v>
+        <v>0.5154496129115325</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3942542159141138</v>
+        <v>0.4993860422876705</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05125546052898222</v>
+        <v>0.3883553933653362</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08054928339848243</v>
+        <v>0.05787647192226476</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.07618201428957327</v>
       </c>
     </row>
     <row r="12">
@@ -1360,66 +1395,69 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.8012351065275636</v>
+        <v>0.7303327852941165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8015055490966779</v>
+        <v>0.800416577233287</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5851383517099206</v>
+        <v>0.793246810426258</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7990126433683727</v>
+        <v>0.5599384075642204</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8656040578043848</v>
+        <v>0.678579009952195</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6535496254898132</v>
+        <v>0.805957488762415</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7201993812509127</v>
+        <v>0.591826674075231</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8346019514089233</v>
+        <v>0.6298392413071348</v>
       </c>
       <c r="N12" t="n">
-        <v>1.054911032728778</v>
+        <v>0.8540488956422231</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7066414674511545</v>
+        <v>1.123474480386508</v>
       </c>
       <c r="P12" t="n">
-        <v>1.033091367816639</v>
+        <v>0.6215112622974338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.047538389615108</v>
+        <v>1.021319502283637</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6863302552634823</v>
+        <v>1.146297172841116</v>
       </c>
       <c r="S12" t="n">
-        <v>0.753479007022942</v>
+        <v>0.6517856519988279</v>
       </c>
       <c r="T12" t="n">
-        <v>0.582634696317514</v>
+        <v>0.6093930150473732</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7982201206087071</v>
+        <v>0.3667133640252497</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7896097368984462</v>
+        <v>0.7394696678623023</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8002877018737031</v>
+        <v>0.6019872962453064</v>
       </c>
       <c r="X12" t="n">
-        <v>1.252023941239377</v>
+        <v>0.9250337320836801</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.347584051502237</v>
+      </c>
+      <c r="Z12" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1438,67 +1476,70 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.9125738705615186</v>
+        <v>0.8920576257822247</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9135810504434609</v>
+        <v>0.9075423054645774</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8247819182367573</v>
+        <v>0.90456307001141</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9118441812639587</v>
+        <v>0.7952508164546415</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8905440093178907</v>
+        <v>0.8762952447303894</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9259971349595172</v>
+        <v>0.8641725941333611</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8449990637162367</v>
+        <v>0.9266822272101067</v>
       </c>
       <c r="M13" t="n">
-        <v>1.174770514337292</v>
+        <v>0.8284033343249331</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9930751123261828</v>
+        <v>1.191136658165908</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8787227902151529</v>
+        <v>1.029368565130861</v>
       </c>
       <c r="P13" t="n">
-        <v>1.000564509482604</v>
+        <v>0.8505161650660236</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9999823640916958</v>
+        <v>0.8184270965610603</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9442037340355313</v>
+        <v>1.115293336501432</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9118449333764453</v>
+        <v>0.9056647726464868</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8795473135606559</v>
+        <v>0.8843660195380472</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9776788106187327</v>
+        <v>0.9252269124530339</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9491070146891983</v>
+        <v>0.9787563030974673</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6604916116421576</v>
+        <v>0.9962638845559186</v>
       </c>
       <c r="X13" t="n">
-        <v>1.032001527079374</v>
+        <v>0.5613277970001871</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0850614213616574</v>
+        <v>0.8944055387931916</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1266279897932048</v>
+        <v>0.09555207173879801</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0898088719869467</v>
       </c>
     </row>
     <row r="14">
@@ -1516,67 +1557,70 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.3862058249628295</v>
+        <v>0.1944641291336334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1999313565492728</v>
+        <v>0.1986145355788435</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07916889748960407</v>
+        <v>0.1894235244365898</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1903094031949638</v>
+        <v>0.1212394345662454</v>
       </c>
       <c r="J14" t="n">
-        <v>0.21302000763473</v>
+        <v>0.1943653844572714</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1369416966534953</v>
+        <v>0.2071892401456999</v>
       </c>
       <c r="L14" t="n">
-        <v>0.155538722922047</v>
+        <v>0.1578779092299774</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2452023594798356</v>
+        <v>0.1639937903186294</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2361662000101486</v>
+        <v>0.2647880858501056</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1412462940157818</v>
+        <v>0.249890969955949</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3248275508723477</v>
+        <v>0.1414077682399155</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1876486187906158</v>
+        <v>0.3446352161159106</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1870123005209375</v>
+        <v>0.2029863725211393</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08802066460591836</v>
+        <v>0.179652264893883</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3389894076310619</v>
+        <v>0.09705657064320843</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06315743903434785</v>
+        <v>0.3540432070510053</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3752252876465313</v>
+        <v>0.04592080791149716</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09587690443449781</v>
+        <v>0.4183163989617152</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06324089059490771</v>
+        <v>0.1287110744153633</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005586905496662999</v>
+        <v>0.03143336850619337</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02087529828937386</v>
+        <v>0.007102075505869501</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.01383437629429634</v>
       </c>
     </row>
     <row r="15">
@@ -1589,66 +1633,69 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-1.050829179728364</v>
+        <v>-1.05346899396898</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.040200962062119</v>
+        <v>-0.9599212665935666</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.004322752213272</v>
+        <v>-1.007178192835484</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.149602845109496</v>
+        <v>-1.00019535072879</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9984706524474731</v>
+        <v>-1.074747891416698</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.052021139067762</v>
+        <v>-0.9541566727344545</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.9294893642298976</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>-1.002644366658436</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.9116364648238813</v>
+      </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>-1.136666190465586</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.8946888949404204</v>
+        <v>-1.114803781649132</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.15449154782546</v>
+        <v>-0.8695783923105842</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.114482816530129</v>
+        <v>-1.19491871348352</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.9374556603833734</v>
+        <v>-1.051017672010705</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.8432154741475543</v>
+        <v>-0.9437968135997025</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.114551416138676</v>
+        <v>-0.7844861060297392</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.9352464100822732</v>
+        <v>-1.065970769659582</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.9510298563021748</v>
+        <v>-0.8776102314798825</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.8632049682420729</v>
+        <v>-0.9260322826383176</v>
       </c>
       <c r="X15" t="n">
-        <v>-1.243392049422181</v>
+        <v>-0.8714603556629327</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5160921064929431</v>
+        <v>-1.234318968886653</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3892714750898331</v>
+        <v>0.5002988758572109</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.4530328770798162</v>
       </c>
     </row>
     <row r="16">
@@ -1661,70 +1708,73 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.3908151934010236</v>
+        <v>-0.3937482386818652</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.337151351998511</v>
+        <v>-0.3773605078411628</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3613113690209812</v>
+        <v>-0.3637553438509275</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3796714867221856</v>
+        <v>-0.3650275094556726</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3629806153200745</v>
+        <v>-0.3859014313405605</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.3927795944920378</v>
+        <v>-0.3750786315570639</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2833588079350921</v>
+        <v>-0.4097441427277136</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.2327549160526793</v>
+        <v>-0.3043181068540358</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.6074204513995106</v>
+        <v>-0.2376479740095169</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.3532981080049933</v>
+        <v>-0.6850254807662651</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3862563340245289</v>
+        <v>-0.3832261017904559</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.315700987833142</v>
+        <v>-0.3746088486187613</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.3628749633667071</v>
+        <v>-0.3005828299129488</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.5570116958537704</v>
+        <v>-0.4333217550044746</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.2252495425645419</v>
+        <v>-0.5550825674533093</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.3709084832213077</v>
+        <v>-0.2142103009173955</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.3750894081737554</v>
+        <v>-0.4072777194392324</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.3889318656480695</v>
+        <v>-0.3580290667924807</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.307672998866131</v>
+        <v>-0.4298608454922514</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.3067768362899017</v>
+        <v>-0.2873501998279535</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05441562878594887</v>
+        <v>-0.3628849876083112</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06655234352006274</v>
+        <v>0.0621284716066435</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0687200615104014</v>
       </c>
     </row>
     <row r="17">
@@ -1737,70 +1787,73 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.03994026348645136</v>
+        <v>-0.04346322271853514</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04349538286778701</v>
+        <v>0.02709901370467271</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02157111482613456</v>
+        <v>0.01745100444423934</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0128336369611939</v>
+        <v>0.01496891555224108</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01938159981063712</v>
+        <v>0.005865453068249883</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06022193622994988</v>
+        <v>0.02767310530352823</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.003297727268798967</v>
+        <v>0.06859013649544857</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.00850585120351322</v>
+        <v>0.005425427903525078</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07724880429073201</v>
+        <v>-0.003565911480149757</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.006003816102489646</v>
+        <v>0.09803702711715213</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05560758950875244</v>
+        <v>-0.01148321755780352</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.03121617460888204</v>
+        <v>0.06687308528127063</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03047162405807931</v>
+        <v>-0.08395353592023656</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07724891070312004</v>
+        <v>0.04415780780337824</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02008959530074963</v>
+        <v>0.08021549394138157</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1023885954475065</v>
+        <v>0.0395575543242725</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.002988405361712019</v>
+        <v>0.1012771413964189</v>
       </c>
       <c r="V17" t="n">
-        <v>0.006142358535025567</v>
+        <v>0.01278857018901077</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06395673432075015</v>
+        <v>0.02349315738639273</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0830607826921818</v>
+        <v>0.06814624517763793</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.004805993195136018</v>
+        <v>-0.05462238391510831</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.006243335830654275</v>
+        <v>0.001249989887267956</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.01265061674409889</v>
       </c>
     </row>
     <row r="18">
@@ -1813,58 +1866,61 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.1159624805032701</v>
+        <v>0.119753375693443</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1645238296751658</v>
+        <v>-0.06095028008372157</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05600024055658809</v>
+        <v>-0.05347197796160853</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03455394962497098</v>
+        <v>-0.05897584935445267</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06142905522380834</v>
+        <v>-0.1215120203109185</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.00342479746260841</v>
+        <v>-0.05758261312062291</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1440680191224907</v>
+        <v>0.001141343293975675</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.06326063965410909</v>
+        <v>-0.154201959949617</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.02678838740180837</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>-0.06778880000434823</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01185162590594171</v>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>-0.04568068250007021</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>-0.07085536826493438</v>
+        <v>-0.02698648328319436</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01427655965971534</v>
+        <v>-0.07316180133893667</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.06777713987208746</v>
+        <v>-0.01829254029587917</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.1296990657686618</v>
+        <v>-0.07536634359074398</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01197559944487173</v>
+        <v>-0.1557137987744074</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.006319193147230384</v>
+        <v>0.01490666841771489</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.01458999297261834</v>
       </c>
     </row>
     <row r="19">
@@ -1877,470 +1933,69 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.2881790248885415</v>
+        <v>-0.2620560062108264</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2339076319790845</v>
+        <v>-0.2742046897638767</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2159044989116853</v>
+        <v>-0.2107035015904681</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2433643249848889</v>
+        <v>-0.2132425624930563</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2178226482079839</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>-0.275525356856669</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.2740766836108466</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>-0.2933804799586436</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-0.1509994338043972</v>
+        <v>-0.3135909887124925</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.08090520776461688</v>
+        <v>-0.2800074595274875</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.3599425184771486</v>
+        <v>-0.1402581494857646</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04100724562746618</v>
+        <v>-0.3966106588949258</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.186057490840102</v>
+        <v>0.02341614832628512</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.3721940162516757</v>
+        <v>-0.2491159860054035</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.2937424184787101</v>
+        <v>-0.378588120101166</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.3623125631581927</v>
+        <v>-0.3544754055508615</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.04783038232018201</v>
+        <v>-0.4184293728812077</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.2624848801297247</v>
+        <v>-0.1637581840584294</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.41573486882464</v>
+        <v>-0.2569908377108678</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.1523942277619023</v>
+        <v>-0.4945069953330037</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02325003385014245</v>
+        <v>-0.1785740210467285</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02531099431058551</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>r_norte</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>-0.08060485451772936</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.01508341421044419</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.07864926074281797</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.04664333649020832</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.07133994702509107</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.1276130460618353</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.0676101683926118</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.1026926659344388</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-0.1824204452457752</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-0.04297441018177948</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-0.1526772012090504</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.02599433906575027</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.1206258431499396</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-0.223680107221946</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-0.07233791517940329</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>0.003798336613726669</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.003417064095384525</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>r_nordeste</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.0921217511244581</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.09505130207862908</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.09453158360246315</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.162725798425864</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.09860595781126287</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.01460456455368297</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2599357637618283</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-0.004188334205599924</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.1040124665767261</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.1171087526688932</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.03440991604363898</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.1240904671315738</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.107715875993416</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.04676129231926173</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.02468320080010153</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>0.002311956082728097</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.001506210284155824</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>r_sudeste</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0.1699172765767713</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.02028045345909574</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0911198878432114</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1464405133239115</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0931895263726438</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.0364237020270942</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.1218026219699975</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.01646739137558623</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0504984675164259</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-0.03473327890864224</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.1528626977925132</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.05399304299764739</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-0.1018380319131177</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.112945054888285</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.2111215094373347</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.0008252733553956642</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>r_sul</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0.09882274831369456</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.05855810603329039</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.006041644640203639</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.0003815201101424374</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.009663544903424833</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.05436641184662697</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-0.03277356942050424</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-0.09433784348177857</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.005244274603719849</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-0.05339171751945629</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.01088759598463186</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.1906049666577723</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.04352497960318333</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.09293703197646938</v>
-      </c>
-      <c r="S23" t="n">
-        <v>-0.06446049511021867</v>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.001073550074042892</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>r_centro_oeste</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0.145164401028334</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.06367034256277451</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1070567569106278</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.1097171415471539</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.111772241781431</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.06464389934048996</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1271842453517322</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1110691028454016</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-0.08435462144129985</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.1220656790232404</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.07282720289428674</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.03897666531430082</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.1924607797424207</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.1686490147274442</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-0.06453338779199531</v>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.0003850080871679181</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>activity_class</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>-0.04594539837098988</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.01194932124140764</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.2503771689580481</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-0.0387610401203585</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.01591386380226879</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.09923171397193659</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.05521228839112366</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-0.2295472150152053</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-0.04873927902365896</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-0.04021950652565973</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-0.05272265918509387</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.04648203534646526</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.04718315574884838</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-0.03768658348680035</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-0.1275140668007314</v>
-      </c>
-      <c r="U25" t="n">
-        <v>-0.04075708757652695</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-0.05339634034079128</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-0.03052088131689951</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.05681146782512388</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.0007266996756689666</v>
+        <v>0.03293150839203727</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.03657672275728268</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
@@ -589,64 +589,64 @@
         <v>0.5006947726293426</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3044084328242878</v>
+        <v>0.3045653822292014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2753590574339034</v>
+        <v>0.2751503330035329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2988378544508173</v>
+        <v>0.2985126395507368</v>
       </c>
       <c r="I2" t="n">
-        <v>0.751134285597876</v>
+        <v>0.4586100047884503</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2947034233241503</v>
+        <v>0.2981284809445505</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05391066255394521</v>
+        <v>-0.05371223751758167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5399064096471564</v>
+        <v>0.5397960578002383</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03511197365442555</v>
+        <v>-0.03511340375163316</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09831551552920177</v>
+        <v>-0.09809153343499408</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1790761953623435</v>
+        <v>0.1791755605662488</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1297472004275759</v>
+        <v>0.129870102422989</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1940254499330396</v>
+        <v>0.1939005653679375</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1611934469172966</v>
+        <v>0.1614380938117752</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2304993102052895</v>
+        <v>0.2307613694406491</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03217374192608941</v>
+        <v>0.03228274413096522</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0799269745942061</v>
+        <v>-0.07914785564233065</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2772131163878756</v>
+        <v>0.2773209776190897</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2320191339181472</v>
+        <v>0.2321756112838658</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4215060103575802</v>
+        <v>0.4219472291825168</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9988825629942707</v>
+        <v>0.9978333374688734</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -666,70 +666,70 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.0490850628954886</v>
+        <v>0.4889375803207078</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05828407178508301</v>
+        <v>0.5813486968696325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0580299715855661</v>
+        <v>0.5785496830257735</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01579648652372174</v>
+        <v>0.3904829694206582</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04931437143463178</v>
+        <v>0.4763894703062467</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04680239066093192</v>
+        <v>0.4677058881033556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04952544402755754</v>
+        <v>0.4949152416466901</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03726887241355105</v>
+        <v>0.3724423094219046</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06808760641694341</v>
+        <v>0.6804022109993231</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05790733674685282</v>
+        <v>0.5786471231002557</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04774167693523195</v>
+        <v>0.4770554983629694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05763759473798546</v>
+        <v>0.5753281892148279</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05509539452527911</v>
+        <v>0.5502842097882708</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05605867658779092</v>
+        <v>0.5598275821178453</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02410811956605487</v>
+        <v>0.2406348676536099</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08076667734165567</v>
+        <v>0.8060291333963497</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06132093184632997</v>
+        <v>0.6124434123013268</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02817305106155158</v>
+        <v>0.2812980540770874</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05367449568512379</v>
+        <v>0.535416636364544</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01092361034708702</v>
+        <v>0.1091563041269733</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01841328429592833</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01692889863667504</v>
+        <v>0.001353170266666447</v>
       </c>
     </row>
     <row r="4">
@@ -747,70 +747,70 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.2278486575994274</v>
+        <v>-0.2278360648614841</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2180428915407883</v>
+        <v>-0.2179768057310135</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2207319312592287</v>
+        <v>-0.2207719282280671</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3137279016265359</v>
+        <v>-0.2345597655490718</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2267689254557565</v>
+        <v>-0.2264807353624167</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1499877939516548</v>
+        <v>-0.1499811822329598</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3391029548074808</v>
+        <v>-0.3390925207831085</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2232369138695824</v>
+        <v>-0.2232368848190942</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2231840203740357</v>
+        <v>-0.2231577244940183</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.07448544305708567</v>
+        <v>-0.07449227996474235</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.347476080907338</v>
+        <v>-0.3474633111744792</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03752160933580291</v>
+        <v>0.03748761086850916</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1605068517632279</v>
+        <v>-0.1604985586820087</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.223368205319255</v>
+        <v>-0.2233476406903929</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.5230346584428825</v>
+        <v>-0.5230284535052068</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03020373119492653</v>
+        <v>-0.03016309515624146</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.2064404666629449</v>
+        <v>-0.2064366818623729</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.3011789252026035</v>
+        <v>-0.3011709631349503</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.2471018347946583</v>
+        <v>-0.247037544853515</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.4340234447412215</v>
+        <v>-0.4340245660755979</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02028129088677196</v>
+        <v>0.02025131963291703</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03211143947943131</v>
+        <v>0.03272386145370884</v>
       </c>
     </row>
     <row r="5">
@@ -828,70 +828,70 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.5712071073116531</v>
+        <v>0.5711800367107607</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5445650566499388</v>
+        <v>0.5445449734120648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5498471087499278</v>
+        <v>0.5499249624705235</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4794362301025227</v>
+        <v>0.5214470752084782</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5647516476418596</v>
+        <v>0.5644361343903063</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5970936150080809</v>
+        <v>0.5970705627309859</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5339161449883808</v>
+        <v>0.5338949162963197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5698084212238812</v>
+        <v>0.5698215456712805</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6057854133942037</v>
+        <v>0.6057725108846546</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6707898226030821</v>
+        <v>0.6707924155900524</v>
       </c>
       <c r="P5" t="n">
-        <v>0.483509343079376</v>
+        <v>0.4835081280139208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6627681197154834</v>
+        <v>0.6628233250250908</v>
       </c>
       <c r="R5" t="n">
-        <v>0.674230494998024</v>
+        <v>0.6742241420544028</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4803474508131954</v>
+        <v>0.4803243761929202</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5170507668681815</v>
+        <v>0.5170443814913491</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4336840296092129</v>
+        <v>0.4335618655161536</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5992696125333534</v>
+        <v>0.5992587400743464</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5734993601627433</v>
+        <v>0.5735056261152452</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5758687177125545</v>
+        <v>0.5758137144455989</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6426468012578946</v>
+        <v>0.6426660596508611</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06409086101522647</v>
+        <v>0.06527628177290921</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0329444659477009</v>
+        <v>0.03568541622053734</v>
       </c>
     </row>
     <row r="6">
@@ -909,70 +909,70 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.02304545050135502</v>
+        <v>-0.02288787168714323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001642081675282384</v>
+        <v>0.001817774424609479</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002533559910440389</v>
+        <v>0.00233283607182842</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02543644708343883</v>
+        <v>-0.01084812227953258</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0235549500770212</v>
+        <v>-0.0229841952161887</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06318860716339417</v>
+        <v>-0.06317402439029957</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04240898375296445</v>
+        <v>0.0424217634567535</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08294942500396554</v>
+        <v>0.08296185087475584</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1848719705169307</v>
+        <v>-0.1848574918990191</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1144051819643045</v>
+        <v>0.1144106578760221</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1396901658643921</v>
+        <v>-0.1396799903096706</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1359378690658738</v>
+        <v>0.1359452993386028</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09728091083893604</v>
+        <v>0.09728980136045495</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.08543375983079379</v>
+        <v>-0.08540570046846697</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2382064156482003</v>
+        <v>-0.2381724944990979</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2336297989764964</v>
+        <v>0.2336473725967394</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1369755500668124</v>
+        <v>-0.1369426570022608</v>
       </c>
       <c r="W6" t="n">
-        <v>0.006480453765967407</v>
+        <v>0.006486971704773453</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1329736427060252</v>
+        <v>-0.1328891915641309</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.02316769132483312</v>
+        <v>-0.02313430066222008</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007678296045119935</v>
+        <v>0.01143895986045535</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.009924033982487474</v>
+        <v>0.01011528455670658</v>
       </c>
     </row>
     <row r="7">
@@ -990,64 +990,64 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.5151619433433663</v>
+        <v>0.5149180074873968</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5245807444715085</v>
+        <v>0.5234736650992765</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5214914854261801</v>
+        <v>0.5210650023686612</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2866946860132951</v>
+        <v>0.2503946033147249</v>
       </c>
       <c r="J7" t="n">
-        <v>0.484660437082276</v>
+        <v>0.4838648346698893</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5812548867236121</v>
+        <v>0.5811511900180023</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4814043370301786</v>
+        <v>0.4813777744730834</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5767624198497034</v>
+        <v>0.5767063079960032</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3076164753362361</v>
+        <v>0.3075854048802202</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4282442293423472</v>
+        <v>0.4281922390100821</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5346669975609438</v>
+        <v>0.5346847528800568</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4615584920499783</v>
+        <v>0.4614606991354837</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4260848449603999</v>
+        <v>0.4260743086346186</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5489562107290068</v>
+        <v>0.5489320739878716</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5558008857954749</v>
+        <v>0.5558093779279184</v>
       </c>
       <c r="U7" t="n">
-        <v>0.619877800281181</v>
+        <v>0.619838525997934</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5236196378688428</v>
+        <v>0.5235294602776873</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5007976692422954</v>
+        <v>0.5008046715164629</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8091695127696096</v>
+        <v>0.8091143585963204</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.002101641541308354</v>
+        <v>-0.002149468684184127</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1071,70 +1071,70 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.3452414744415528</v>
+        <v>0.3451271491152615</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3498286850832531</v>
+        <v>0.3500958341752122</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3581022470802309</v>
+        <v>0.3583642086511465</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3493447428379544</v>
+        <v>0.3655558062576842</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3470026062927024</v>
+        <v>0.3462193193649721</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3207970614304912</v>
+        <v>0.3207853691077042</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3853733511011433</v>
+        <v>0.3853329531257957</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2743717154254384</v>
+        <v>0.2743631721705868</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4683643313262998</v>
+        <v>0.4683454600096859</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5778005620791812</v>
+        <v>0.5777788543345432</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2386901960150539</v>
+        <v>0.2386805037297815</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7252020900036811</v>
+        <v>0.7251812742533671</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5364384547481963</v>
+        <v>0.5364285923735829</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3223443852266387</v>
+        <v>0.3223230385961973</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2241170480656189</v>
+        <v>0.2241128345413463</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3678319987319613</v>
+        <v>0.3677844409228209</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3993895490849529</v>
+        <v>0.3993632628994807</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2128492869364522</v>
+        <v>0.2128289793727927</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4418705559430138</v>
+        <v>0.4417940926563407</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3244683715588457</v>
+        <v>0.3243400407251671</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1174901344291465</v>
+        <v>0.1196632249752287</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.09796813992533358</v>
+        <v>0.1065658789965446</v>
       </c>
     </row>
     <row r="9">
@@ -1152,70 +1152,70 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.4966348972541741</v>
+        <v>0.4965960037075351</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4643075064338085</v>
+        <v>0.4636116608439458</v>
       </c>
       <c r="H9" t="n">
-        <v>0.479607576318774</v>
+        <v>0.479424253252198</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3126726288749622</v>
+        <v>0.353118893811936</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4871601733709644</v>
+        <v>0.4863322277937916</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4973530188693997</v>
+        <v>0.49735423966571</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5071465837371005</v>
+        <v>0.5070951491378688</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4566783681592305</v>
+        <v>0.456663159168777</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5976976998129813</v>
+        <v>0.5976834183906835</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2605219231116263</v>
+        <v>0.2604987728666787</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5231573283508313</v>
+        <v>0.5231503903118178</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5209230702021125</v>
+        <v>0.5209571536033288</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2126211582700721</v>
+        <v>0.2126095966829752</v>
       </c>
       <c r="S9" t="n">
-        <v>0.705617130161872</v>
+        <v>0.7056041401683923</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4724886242588635</v>
+        <v>0.4724890686517664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6555657015944814</v>
+        <v>0.6554897366859579</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4311678323158463</v>
+        <v>0.4311162620146918</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4202206989429136</v>
+        <v>0.4202048959456461</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5089863386404103</v>
+        <v>0.508908916391107</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5145236671574892</v>
+        <v>0.5144642748336747</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01818574151062811</v>
+        <v>0.01712757502892004</v>
       </c>
     </row>
     <row r="10">
@@ -1233,70 +1233,70 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.8754339152804853</v>
+        <v>0.8752160925206721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8897424902604524</v>
+        <v>0.8906290343975749</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8823887518124569</v>
+        <v>0.8830055674834268</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7499008680919355</v>
+        <v>0.7572366941210651</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8528577024364928</v>
+        <v>0.85271231892531</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9444138247897593</v>
+        <v>0.9444661548665754</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7911890139716061</v>
+        <v>0.7911733677586381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8063226054727188</v>
+        <v>0.8063454275473696</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9637671543572744</v>
+        <v>0.9637530515547651</v>
       </c>
       <c r="O10" t="n">
-        <v>1.171546193459507</v>
+        <v>1.171554884967688</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7741226890538123</v>
+        <v>0.7741097784318733</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.576615227643527</v>
+        <v>1.576633898567854</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9890133640313843</v>
+        <v>0.9890111818553003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6843606411610904</v>
+        <v>0.6843434548261427</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8454736853385005</v>
+        <v>0.8454901320840819</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9866319089553454</v>
+        <v>0.9866784445789381</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9510331349549193</v>
+        <v>0.9510501909832261</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01085278572096</v>
+        <v>1.01086081300021</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3961424612850083</v>
+        <v>0.3960650029221435</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7625729853072846</v>
+        <v>0.7625131193008036</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02654174688270966</v>
+        <v>0.02718450275403049</v>
       </c>
     </row>
     <row r="11">
@@ -1314,70 +1314,70 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.4649784994706457</v>
+        <v>0.4648939599834898</v>
       </c>
       <c r="G11" t="n">
-        <v>0.454752514413836</v>
+        <v>0.454538142576452</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4746624050458638</v>
+        <v>0.4744652331443516</v>
       </c>
       <c r="I11" t="n">
-        <v>0.402993017107752</v>
+        <v>0.4368054784454337</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4630068600478784</v>
+        <v>0.462441726368385</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4631256506298284</v>
+        <v>0.463106147456489</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4683117316700502</v>
+        <v>0.4682815077044159</v>
       </c>
       <c r="M11" t="n">
-        <v>0.428197398573967</v>
+        <v>0.4281839597522591</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5336804782325918</v>
+        <v>0.5336853620888924</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5241002095827659</v>
+        <v>0.524111958905301</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4238688713513677</v>
+        <v>0.4238716823619037</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4770821931709892</v>
+        <v>0.4770447716236806</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5621027574775213</v>
+        <v>0.5620996419129191</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3908065893142255</v>
+        <v>0.3908102397505728</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4888443921675828</v>
+        <v>0.4888332076465659</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3774822694926668</v>
+        <v>0.3774750382549086</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4748626639607098</v>
+        <v>0.4748599207604399</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5154496129115325</v>
+        <v>0.5154437683642648</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4993860422876705</v>
+        <v>0.4993016328761132</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3883553933653362</v>
+        <v>0.3882483420666379</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05787647192226476</v>
+        <v>0.05894695170826403</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07618201428957327</v>
+        <v>0.0816034054518946</v>
       </c>
     </row>
     <row r="12">
@@ -1395,64 +1395,64 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.7303327852941165</v>
+        <v>0.7301813201789664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.800416577233287</v>
+        <v>0.8008752794398533</v>
       </c>
       <c r="H12" t="n">
-        <v>0.793246810426258</v>
+        <v>0.7934514032283405</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5599384075642204</v>
+        <v>0.4771922332723444</v>
       </c>
       <c r="J12" t="n">
-        <v>0.678579009952195</v>
+        <v>0.6785052151098561</v>
       </c>
       <c r="K12" t="n">
-        <v>0.805957488762415</v>
+        <v>0.8059197543725781</v>
       </c>
       <c r="L12" t="n">
-        <v>0.591826674075231</v>
+        <v>0.5917967646594328</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6298392413071348</v>
+        <v>0.6298670072603214</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8540488956422231</v>
+        <v>0.8540423846131758</v>
       </c>
       <c r="O12" t="n">
-        <v>1.123474480386508</v>
+        <v>1.123481088619741</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6215112622974338</v>
+        <v>0.6215819881757619</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.021319502283637</v>
+        <v>1.021320634710565</v>
       </c>
       <c r="R12" t="n">
-        <v>1.146297172841116</v>
+        <v>1.146348426203664</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6517856519988279</v>
+        <v>0.6517923593575791</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6093930150473732</v>
+        <v>0.6094461983289337</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3667133640252497</v>
+        <v>0.3667796273187794</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7394696678623023</v>
+        <v>0.7394584509115795</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6019872962453064</v>
+        <v>0.6019761738314179</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9250337320836801</v>
+        <v>0.9248834906188852</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.347584051502237</v>
+        <v>1.347603624848412</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1476,70 +1476,70 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.8920576257822247</v>
+        <v>0.8921706705480209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9075423054645774</v>
+        <v>0.9078437699501155</v>
       </c>
       <c r="H13" t="n">
-        <v>0.90456307001141</v>
+        <v>0.9043210907079388</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7952508164546415</v>
+        <v>0.8258140422967928</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8762952447303894</v>
+        <v>0.8753937191937411</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8641725941333611</v>
+        <v>0.8641495604488741</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9266822272101067</v>
+        <v>0.9266312362063978</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8284033343249331</v>
+        <v>0.8283829012118581</v>
       </c>
       <c r="N13" t="n">
-        <v>1.191136658165908</v>
+        <v>1.191123152765614</v>
       </c>
       <c r="O13" t="n">
-        <v>1.029368565130861</v>
+        <v>1.029364437796734</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8505161650660236</v>
+        <v>0.850497406776523</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8184270965610603</v>
+        <v>0.8184556300727103</v>
       </c>
       <c r="R13" t="n">
-        <v>1.115293336501432</v>
+        <v>1.115292603454846</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9056647726464868</v>
+        <v>0.9056445938999759</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8843660195380472</v>
+        <v>0.8843531990082748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9252269124530339</v>
+        <v>0.9251537061566633</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9787563030974673</v>
+        <v>0.9786958395414775</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9962638845559186</v>
+        <v>0.9962410185108826</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5613277970001871</v>
+        <v>0.5612479555021281</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8944055387931916</v>
+        <v>0.8942229239094672</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.09555207173879801</v>
+        <v>0.09731939718071653</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0898088719869467</v>
+        <v>0.09390462541702543</v>
       </c>
     </row>
     <row r="14">
@@ -1557,70 +1557,70 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.1944641291336334</v>
+        <v>0.194597094912328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1986145355788435</v>
+        <v>0.1987628582087794</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1894235244365898</v>
+        <v>0.1894338277397399</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1212394345662454</v>
+        <v>0.2018810993520358</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1943653844572714</v>
+        <v>0.1945310709693309</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2071892401456999</v>
+        <v>0.2071960311527473</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1578779092299774</v>
+        <v>0.1578939577855484</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1639937903186294</v>
+        <v>0.1639926463431255</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2647880858501056</v>
+        <v>0.2648076970853437</v>
       </c>
       <c r="O14" t="n">
-        <v>0.249890969955949</v>
+        <v>0.2498899672890451</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1414077682399155</v>
+        <v>0.1414204210396749</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3446352161159106</v>
+        <v>0.3446387390627977</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2029863725211393</v>
+        <v>0.2029843912192818</v>
       </c>
       <c r="S14" t="n">
-        <v>0.179652264893883</v>
+        <v>0.1796740948955129</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09705657064320843</v>
+        <v>0.09706520396939254</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3540432070510053</v>
+        <v>0.3540579055791692</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04592080791149716</v>
+        <v>0.0459380095190993</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4183163989617152</v>
+        <v>0.4183225465698768</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1287110744153633</v>
+        <v>0.128695562440062</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03143336850619337</v>
+        <v>0.03138559584639317</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.007102075505869501</v>
+        <v>0.01131382349064538</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01383437629429634</v>
+        <v>0.01644729970106583</v>
       </c>
     </row>
     <row r="15">
@@ -1636,66 +1636,66 @@
         <v>-1.05346899396898</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9599212665935666</v>
+        <v>-0.959903166611877</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.007178192835484</v>
+        <v>-1.007030208856876</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.00019535072879</v>
+        <v>-1.000124122462213</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.074747891416698</v>
+        <v>-0.9771466353475127</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.9541566727344545</v>
+        <v>-0.9540102636090905</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.002644366658436</v>
+        <v>-1.002657219094664</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9116364648238813</v>
+        <v>-0.9116109305066372</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-1.114803781649132</v>
+        <v>-1.114797224005856</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.8695783923105842</v>
+        <v>-0.8695839468360099</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.19491871348352</v>
+        <v>-1.194880228646124</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.051017672010705</v>
+        <v>-1.051007880015371</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.9437968135997025</v>
+        <v>-0.9437862767338497</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.7844861060297392</v>
+        <v>-0.7844795384270371</v>
       </c>
       <c r="U15" t="n">
-        <v>-1.065970769659582</v>
+        <v>-1.065950079699954</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.8776102314798825</v>
+        <v>-0.8775981427972405</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.9260322826383176</v>
+        <v>-0.9260333206372895</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.8714603556629327</v>
+        <v>-0.8714733186329838</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.234318968886653</v>
+        <v>-1.234270225865599</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.5002988758572109</v>
+        <v>0.5095523741410461</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4530328770798162</v>
+        <v>0.4592545806500146</v>
       </c>
     </row>
     <row r="16">
@@ -1711,70 +1711,70 @@
         <v>-0.3937482386818652</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3773605078411628</v>
+        <v>-0.3772247777148215</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3637553438509275</v>
+        <v>-0.3637480525227698</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3650275094556726</v>
+        <v>-0.3650491275069753</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3859014313405605</v>
+        <v>-0.3866368567150567</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.3750786315570639</v>
+        <v>-0.3750817814162206</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.4097441427277136</v>
+        <v>-0.4097505101088905</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3043181068540358</v>
+        <v>-0.3043277723206771</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.2376479740095169</v>
+        <v>-0.2376414120299368</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.6850254807662651</v>
+        <v>-0.6850144694236471</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3832261017904559</v>
+        <v>-0.3832276507535706</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.3746088486187613</v>
+        <v>-0.3746193156109433</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.3005828299129488</v>
+        <v>-0.3005641900660705</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.4333217550044746</v>
+        <v>-0.4333135885276028</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5550825674533093</v>
+        <v>-0.5550818452979244</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.2142103009173955</v>
+        <v>-0.214198189825407</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.4072777194392324</v>
+        <v>-0.4072777197102835</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.3580290667924807</v>
+        <v>-0.3580359549743927</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.4298608454922514</v>
+        <v>-0.4298591124373946</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.2873501998279535</v>
+        <v>-0.2873624219929313</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.3628849876083112</v>
+        <v>-0.3628565896507669</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0621284716066435</v>
+        <v>0.06131013301052251</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0687200615104014</v>
+        <v>0.06508557144744503</v>
       </c>
     </row>
     <row r="17">
@@ -1790,70 +1790,70 @@
         <v>-0.04346322271853514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02709901370467271</v>
+        <v>0.1084600791688879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01745100444423934</v>
+        <v>0.07019774557613224</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01496891555224108</v>
+        <v>0.06092685864779498</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005865453068249883</v>
+        <v>-0.02762732517565334</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02767310530352823</v>
+        <v>0.1086418855135872</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06859013649544857</v>
+        <v>0.2741705009659977</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005425427903525078</v>
+        <v>0.02172906325997444</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.003565911480149757</v>
+        <v>-0.01422390613735258</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09803702711715213</v>
+        <v>0.3919192787816618</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01148321755780352</v>
+        <v>-0.04589249627784324</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06687308528127063</v>
+        <v>0.2673627920233703</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.08395353592023656</v>
+        <v>-0.334902214329303</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04415780780337824</v>
+        <v>0.1764373995006388</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08021549394138157</v>
+        <v>0.320586451502834</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0395575543242725</v>
+        <v>0.1580830229844012</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1012771413964189</v>
+        <v>0.404520133418862</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01278857018901077</v>
+        <v>0.0511931714454506</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02349315738639273</v>
+        <v>0.09386747313104481</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06814624517763793</v>
+        <v>0.2720541755365701</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.05462238391510831</v>
+        <v>-0.2177025824711999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.001249989887267956</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01265061674409889</v>
+        <v>0.004145392325987225</v>
       </c>
     </row>
     <row r="18">
@@ -1869,31 +1869,31 @@
         <v>0.119753375693443</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.06095028008372157</v>
+        <v>-0.2435188204710238</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05347197796160853</v>
+        <v>-0.2135855096037476</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.05897584935445267</v>
+        <v>-0.2355868275159204</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1215120203109185</v>
+        <v>-0.2679551218660125</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.05758261312062291</v>
+        <v>-0.2280046476910466</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001141343293975675</v>
+        <v>0.004510683944845318</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.154201959949617</v>
+        <v>-0.6165414436820299</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06778880000434823</v>
+        <v>-0.271087687937697</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01185162590594171</v>
+        <v>-0.04747249299936109</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -1902,25 +1902,25 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>-0.02698648328319436</v>
+        <v>-0.1081620497180453</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.07316180133893667</v>
+        <v>-0.2925810180757153</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01829254029587917</v>
+        <v>-0.07316625361455049</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.07536634359074398</v>
+        <v>-0.3011560101849975</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.1557137987744074</v>
+        <v>-0.6216142484761278</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01490666841771489</v>
+        <v>0.009429410321055516</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01458999297261834</v>
+        <v>0.009588751063547505</v>
       </c>
     </row>
     <row r="19">
@@ -1936,66 +1936,66 @@
         <v>-0.2620560062108264</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2742046897638767</v>
+        <v>-0.2742872984250848</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2107035015904681</v>
+        <v>-0.2107961074891739</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2132425624930563</v>
+        <v>-0.2133452396871126</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.275525356856669</v>
+        <v>-0.2536675388559685</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.2740766836108466</v>
+        <v>-0.2737189481120689</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-0.3135909887124925</v>
+        <v>-0.3136066543814189</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.2800074595274875</v>
+        <v>-0.2799490589247662</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1402581494857646</v>
+        <v>-0.140254698033485</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.3966106588949258</v>
+        <v>-0.3965782472028727</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02341614832628512</v>
+        <v>0.02331744395991409</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.2491159860054035</v>
+        <v>-0.2490576417160774</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.378588120101166</v>
+        <v>-0.3785250869457424</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.3544754055508615</v>
+        <v>-0.3544358696938437</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.4184293728812077</v>
+        <v>-0.4183311881535868</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.1637581840584294</v>
+        <v>-0.1637743761483334</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.2569908377108678</v>
+        <v>-0.2569763282756652</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.4945069953330037</v>
+        <v>-0.4944628898868678</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.1785740210467285</v>
+        <v>-0.1787942003469455</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03293150839203727</v>
+        <v>0.03549812390623965</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03657672275728268</v>
+        <v>0.03921468466590549</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/importances.xlsx
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08841029047095439</v>
+        <v>0.08859016593085221</v>
       </c>
       <c r="C2" t="n">
         <v>-0.3596670273164657</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.375232968027443</v>
+        <v>-0.3748719879692826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5006947726293426</v>
+        <v>0.500974289110435</v>
       </c>
       <c r="F2" t="n">
         <v>0.3045653822292014</v>
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03293350680575683</v>
+        <v>0.3285290964010396</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.05080695341655181</v>
+        <v>0.5065910546602566</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -739,11 +739,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3110561044774335</v>
+        <v>-0.3110421125045709</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>-0.2686380543701918</v>
+        <v>-0.2687702719986461</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -820,11 +820,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4266445302534104</v>
+        <v>0.4266339072579547</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.4968936432688553</v>
+        <v>0.496912114481132</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2574997732991599</v>
+        <v>-0.2574709529816392</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>-0.168735271217353</v>
+        <v>-0.1686606330856926</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -986,7 +986,7 @@
         <v>0.598822376247938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6107212392019017</v>
+        <v>0.6107804557690382</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -1067,7 +1067,7 @@
         <v>0.3329954594975929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3201042418881354</v>
+        <v>0.3201639664723365</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -1148,7 +1148,7 @@
         <v>0.4426116002868843</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4276491689400954</v>
+        <v>0.4267843122696058</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -1229,7 +1229,7 @@
         <v>0.8173255593870614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7935833906997333</v>
+        <v>0.7936592621526588</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -1310,7 +1310,7 @@
         <v>0.4155777361832707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4478229501524228</v>
+        <v>0.4479728201887476</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -1391,7 +1391,7 @@
         <v>0.8274164598951924</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7482262423075713</v>
+        <v>0.7480690263917883</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -1472,7 +1472,7 @@
         <v>0.9709645811247088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9666216940124102</v>
+        <v>0.9665868908221127</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -1553,7 +1553,7 @@
         <v>0.1718466589537598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1841484508893274</v>
+        <v>0.1843287929059529</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -1633,7 +1633,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-1.05346899396898</v>
+        <v>-1.053468813023557</v>
       </c>
       <c r="F15" t="n">
         <v>-0.959903166611877</v>
@@ -1708,7 +1708,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.3937482386818652</v>
+        <v>-0.3937393266316064</v>
       </c>
       <c r="F16" t="n">
         <v>-0.3772247777148215</v>
@@ -1787,7 +1787,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.04346322271853514</v>
+        <v>-0.1735757567781373</v>
       </c>
       <c r="F17" t="n">
         <v>0.1084600791688879</v>
@@ -1866,7 +1866,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.119753375693443</v>
+        <v>0.4783224435085008</v>
       </c>
       <c r="F18" t="n">
         <v>-0.2435188204710238</v>
@@ -1933,7 +1933,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.2620560062108264</v>
+        <v>-0.2620687839492442</v>
       </c>
       <c r="F19" t="n">
         <v>-0.2742872984250848</v>
